--- a/WinFormsApp2/bin/Debug/net5.0-windows/ExplanationData/陽占特徴説明.xlsx
+++ b/WinFormsApp2/bin/Debug/net5.0-windows/ExplanationData/陽占特徴説明.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Development\桑原さんソフト\GitHub\sample\WinFormsApp2\bin\Debug\net5.0-windows\ExplanationData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EBD23B4-91E6-4A7B-B2C9-543682273484}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{456B80F8-2212-4ECB-956B-8B026725CDED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8175" yWindow="4605" windowWidth="19395" windowHeight="11280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1710" yWindow="2235" windowWidth="16830" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet0" sheetId="1" r:id="rId1"/>
@@ -121,7 +121,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -137,13 +137,6 @@
       <sz val="10"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="MS P ゴシック"/>
-      <family val="3"/>
       <charset val="128"/>
     </font>
   </fonts>
@@ -1548,10 +1541,10 @@
   <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.140625" style="2" customWidth="1"/>
     <col min="2" max="2" width="53.140625" customWidth="1"/>
@@ -1561,42 +1554,42 @@
     <col min="6" max="6" width="36.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="147.75" customHeight="1">
+    <row r="1" spans="1:1" ht="147.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="147.75" customHeight="1">
+    <row r="2" spans="1:1" ht="147.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="147.75" customHeight="1">
+    <row r="3" spans="1:1" ht="147.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="147.75" customHeight="1">
+    <row r="4" spans="1:1" ht="147.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="132" customHeight="1">
+    <row r="5" spans="1:1" ht="132" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="171.75" customHeight="1">
+    <row r="6" spans="1:1" ht="171.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="165" customHeight="1">
+    <row r="7" spans="1:1" ht="165" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="135" customHeight="1">
+    <row r="8" spans="1:1" ht="135" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
